--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/3_ECA/4_Submission/ANL252 ECA Score Sheet SBIZ T05 Munish Kumar.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/3_ECA/4_Submission/ANL252 ECA Score Sheet SBIZ T05 Munish Kumar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\3_ECA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BA61AA-D212-4D45-88FA-18CB31E8577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B083D24-E72B-4AC4-A09F-4CD191A7244F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="812" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="195">
   <si>
     <t>S/N</t>
   </si>
@@ -1150,7 +1150,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1423,6 +1423,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1435,21 +1448,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1471,6 +1471,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2985,36 +2994,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="38"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -3022,40 +3031,40 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="39">
         <v>44991</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="42"/>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="110"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="43">
         <f>C4+14</f>
         <v>45005</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A5" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="107"/>
+      <c r="A5" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="105"/>
       <c r="C5" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3082,10 +3091,10 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="106"/>
+      <c r="H7" s="110"/>
       <c r="I7" s="53">
         <v>37</v>
       </c>
@@ -3125,10 +3134,10 @@
       <c r="A11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="29" t="s">
         <v>1</v>
       </c>
@@ -3253,10 +3262,10 @@
       <c r="A18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="29" t="s">
         <v>1</v>
       </c>
@@ -4102,16 +4111,16 @@
     <sortCondition ref="B19:B60"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.511811023622047" bottom="0.23622047244094499" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4122,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF7561-B480-4AC8-B545-9EA41AAA41DE}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4144,7 +4153,7 @@
     <col min="17" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:21" ht="21.75" thickBot="1">
       <c r="A1" s="65" t="s">
         <v>122</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" thickBot="1">
+    <row r="2" spans="1:21" ht="21.75" thickBot="1">
       <c r="A2" s="69">
         <v>1</v>
       </c>
@@ -4166,7 +4175,7 @@
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:21">
       <c r="A3" s="69">
         <v>2</v>
       </c>
@@ -4181,8 +4190,41 @@
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="69">
         <v>3</v>
       </c>
@@ -4197,8 +4239,52 @@
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
         <v>65.21621621621621</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="K4" s="120">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="N4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="O4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="P4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="Q4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="R4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="S4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="121">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="U4" s="121">
+        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="A5" s="69">
         <v>4</v>
       </c>
@@ -4214,7 +4300,7 @@
         <v>11.336115185878599</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="A6" s="69">
         <v>5</v>
       </c>
@@ -4228,7 +4314,7 @@
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="A7" s="69">
         <v>6</v>
       </c>
@@ -4252,7 +4338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:21">
       <c r="A8" s="69">
         <v>7</v>
       </c>
@@ -4277,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:21">
       <c r="A9" s="69">
         <v>8</v>
       </c>
@@ -4302,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:21">
       <c r="A10" s="69">
         <v>9</v>
       </c>
@@ -4327,7 +4413,7 @@
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:21">
       <c r="A11" s="69">
         <v>10</v>
       </c>
@@ -4352,7 +4438,7 @@
         <v>0.35135135135135137</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:21">
       <c r="A12" s="69">
         <v>11</v>
       </c>
@@ -4377,7 +4463,7 @@
         <v>0.27027027027027029</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:21">
       <c r="A13" s="69">
         <v>12</v>
       </c>
@@ -4399,7 +4485,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:21">
       <c r="A14" s="69">
         <v>13</v>
       </c>
@@ -4421,7 +4507,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:21">
       <c r="A15" s="69">
         <v>14</v>
       </c>
@@ -4446,7 +4532,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:21">
       <c r="A16" s="69">
         <v>15</v>
       </c>
@@ -6104,7 +6190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC0383-5186-4F82-B336-4673BDF74313}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39:A40"/>
     </sheetView>
@@ -6168,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="64">
-        <f>SUM(B2:G2)</f>
+        <f t="shared" ref="H2:H44" si="0">SUM(B2:G2)</f>
         <v>100</v>
       </c>
     </row>
@@ -6195,7 +6281,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="61">
-        <f>SUM(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -6222,7 +6308,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="61">
-        <f>SUM(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -6249,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="61">
-        <f>SUM(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -6276,7 +6362,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="61">
-        <f>SUM(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -6303,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="61">
-        <f>SUM(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -6330,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="61">
-        <f>SUM(B8:G8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6357,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="61">
-        <f>SUM(B9:G9)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -6384,7 +6470,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="61">
-        <f>SUM(B10:G10)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
@@ -6411,7 +6497,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="61">
-        <f>SUM(B11:G11)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -6438,7 +6524,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="61">
-        <f>SUM(B12:G12)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -6465,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="61">
-        <f>SUM(B13:G13)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -6492,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="61">
-        <f>SUM(B14:G14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6519,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="61">
-        <f>SUM(B15:G15)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -6546,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="61">
-        <f>SUM(B16:G16)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -6573,7 +6659,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="61">
-        <f>SUM(B17:G17)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -6600,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="61">
-        <f>SUM(B18:G18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6627,7 +6713,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="61">
-        <f>SUM(B19:G19)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -6654,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="61">
-        <f>SUM(B20:G20)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -6681,7 +6767,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="61">
-        <f>SUM(B21:G21)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -6708,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="61">
-        <f>SUM(B22:G22)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -6735,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="61">
-        <f>SUM(B23:G23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6762,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="61">
-        <f>SUM(B24:G24)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -6789,7 +6875,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="61">
-        <f>SUM(B25:G25)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -6816,7 +6902,7 @@
         <v>6</v>
       </c>
       <c r="H26" s="61">
-        <f>SUM(B26:G26)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -6843,7 +6929,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="61">
-        <f>SUM(B27:G27)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
@@ -6870,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="61">
-        <f>SUM(B28:G28)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="I28" s="61"/>
@@ -6898,7 +6984,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="61">
-        <f>SUM(B29:G29)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -6925,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="61">
-        <f>SUM(B30:G30)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -6952,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="61">
-        <f>SUM(B31:G31)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -6979,7 +7065,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="61">
-        <f>SUM(B32:G32)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -7006,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="61">
-        <f>SUM(B33:G33)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7033,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="61">
-        <f>SUM(B34:G34)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
@@ -7060,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="61">
-        <f>SUM(B35:G35)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -7087,7 +7173,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="61">
-        <f>SUM(B36:G36)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -7114,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="61">
-        <f>SUM(B37:G37)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -7141,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="61">
-        <f>SUM(B38:G38)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -7168,7 +7254,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="61">
-        <f>SUM(B39:G39)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -7195,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="H40" s="61">
-        <f>SUM(B40:G40)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
@@ -7222,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="61">
-        <f>SUM(B41:G41)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -7249,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="61">
-        <f>SUM(B42:G42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7276,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="61">
-        <f>SUM(B43:G43)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -7303,7 +7389,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="61">
-        <f>SUM(B44:G44)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
